--- a/PowerAnalysesPsycSciJuly.xlsx
+++ b/PowerAnalysesPsycSciJuly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fsingletonthorn\Documents\PhD\Effect Size paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B857CD37-4C84-4188-B570-DBE67B5A5B60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECFA0C1-E430-4AD9-BDDB-547B521DD59C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6030" xr2:uid="{7DCA936C-81AC-45A1-865F-1271D14B61EA}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="211">
   <si>
     <t>The Smile-Seeking Hypothesis: How Immediate Affective Reactions Motivate and Reward Gift Giving Adelle X. Yang, Oleg Urminsky</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Given that Bastian et al. (2013) showed effect sizes (fs) from 0.40 to 0.73, we calculated our sample size on the basis of an estimated effect size of 0.40 (a large effect size). This required a sample size of approximately 150 participants for the study to achieve 99% power. We thus aimed for approximately 50 participants per condition (also consistent with the recommendations of Simmons, Nelson, &amp; Simonsohn, 2013). Given the exclusion criteria developed prior to conducting the study, 21 participants who failed to follow instructions to write an essay or failed the attention check were excluded from analyses. The final sample thus consisted of 156 participants (68.6% male; age: M = 30.1 years, SD = 10.1; 49 in the unethical condition, 54 in the ethical condition, and 53 in the neutral condition).</t>
   </si>
   <si>
-    <t>Informal assertion</t>
-  </si>
-  <si>
     <t>The number of participants was chosen on the basis of previous facial adaptation experiments in our lab that showed that this sample size is sufficient to show reliable effects (de la Rosa et al., 2013).</t>
   </si>
   <si>
@@ -218,7 +215,454 @@
     <t>No effect size stated</t>
   </si>
   <si>
-    <t>AnyJustification</t>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Childhood Origins of Young Adult Environmental Behavior Gary W. Evans1,2, Siegmar Otto3, and Florian G. Kaiser3</t>
+  </si>
+  <si>
+    <t>Beyond the 30-Million-Word Gap: Children’s Conversational Exposure Is Associated With Language-Related Brain Function Rachel R. Romeo1,2 , Julia A. Leonard2,3, Sydney T. Robinson2,3, Martin R. West4, Allyson P. Mackey2,3,5, Meredith L. Rowe4, and John D. E. Gabrieli2</t>
+  </si>
+  <si>
+    <t>Early-Childhood Conduct Problems Predict Economic and Political Discontent in Adulthood: Evidence From Two Large, Longitudinal UK Cohorts Gary J. Lewis</t>
+  </si>
+  <si>
+    <t>Feeling Is Believing: Inspiration Encourages Belief in God Clayton R. Critcher1 and Chan Jean Lee</t>
+  </si>
+  <si>
+    <t>Persuasion, Emotion, and Language: The Intent to Persuade Transforms Language via Emotionality Matthew D. Rocklage, Derek D. Rucker, and Loran F. Nordgren</t>
+  </si>
+  <si>
+    <t>Subjective Confidence Predicts Information Seeking in Decision Making Kobe Desender1,2,3, Annika Boldt4,5, and Nick Yeung</t>
+  </si>
+  <si>
+    <t>Do Evaluations Rise With Experience? Kieran O’Connor and Amar Cheema</t>
+  </si>
+  <si>
+    <t>Genetics and Crime: Integrating New Genomic Discoveries Into Psychological Research About Antisocial Behavior J. Wertz1, A. Caspi1,2,3,4, D. W. Belsky5,6, A. L. Beckley1,7, L. Arseneault4, J. C. Barnes8, D. L. Corcoran3, S. Hogan9, R. M. Houts1, N. Morgan10, C. L. Odgers11, J. A. Prinz3, K. Sugden1, B. S. Williams1, R. Poulton9, and T. E. Moffitt</t>
+  </si>
+  <si>
+    <t>The Long Shadow of Rivalry: Rivalry Motivates Performance Today and Tomorrow Brian E. Pike1, Gavin J. Kilduff 2, and Adam D. Galinsky</t>
+  </si>
+  <si>
+    <t>Friends With Health Benefits: The Long-Term Benefits of Early Peer Social Integration for Blood Pressure and Obesity in Midlife Jenny M. Cundiff 1 and Karen A. Matthews</t>
+  </si>
+  <si>
+    <t>Local Competition Amplifies the Corrosive Effects of Inequality D. B. Krupp 1,2 and Thomas R. Cook</t>
+  </si>
+  <si>
+    <t>Impediments to Effective Altruism: The Role of Subjective Preferences in Charitable Giving Jonathan Z. Berman1, Alixandra Barasch2, Emma E. Levine3, and Deborah A. Small</t>
+  </si>
+  <si>
+    <t>Visual Memories Bypass Normalization Ilona M. Bloem1,2, Yurika L. Watanabe1,2, Melissa M. Kibbe1,2, and Sam Ling</t>
+  </si>
+  <si>
+    <t>Group Influences on Engaging Self-Control: Children Delay Gratification and Value It More When Their In-Group Delays and Their Out-Group Doesn’t Sabine Doebel and Yuko Munakata</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Assuming a medium effect size (R2 ) of .13, setting power at .80, a sample size of 89 with six predictors would be sufficient to obtain a significant effect at α = .05.</t>
+  </si>
+  <si>
+    <t>Sensitivity analysis</t>
+  </si>
+  <si>
+    <t>Hair and Salivary Testosterone, Hair Cortisol, and Externalizing Behaviors in Adolescents Andrew D. Grotzinger, Frank D. Mann, Megan W. Patterson</t>
+  </si>
+  <si>
+    <t>As noted above, data from both cohorts were collected by independent investigators, and the current study had no control over the sampling strategy or sample size (i.e., the present work is a secondary analysis of archival data). Nonetheless, statistical power in both cohorts was excellent: e.g., 95% power (α = .05, two-tailed) to detect a zero-order association (r) of .05</t>
+  </si>
+  <si>
+    <t>y. Given that no prior research exists on this topic, we sought to construct an initial wellpowered experiment based on a small to moderate effect size (f = .10). A power analysis indicated that we would require approximately 1,600 participants across our three conditions (Faul, Erdfelder, Buchner, &amp; Lang, 2009). To that end, we randomly assigned each of 1,285 participants to one of two experimental conditions to write an online review for 1 of 20 diverse products (e.g., movies, music, toasters, printers) with either a low or high intent to persuade. In the third condition, to build ecological validity, we provided a real-world baseline condition from publically available reviews of the very same products on Amazon.com (n = 840).</t>
+  </si>
+  <si>
+    <t>The sample size was chosen because in a previous study this number proved effective in revealing the effect of variance on confidence (Boldt et al., 2017). In that study, the difference in confidence between the two medium-difficulty conditions computed on all trials (see below) produced a large effect size (n = 20, Cohen’s d = 1.19), which gave the current study (N = 20) strong power of .99 to detect this. All procedures were approved by the local ethics committee.</t>
+  </si>
+  <si>
+    <t>Given the results of prior studies, we estimated a sample size of approximately 200 participants to complete the study, consistent with a power analysis using estimates for small effect sizes (e.g., ηp 2 ≤ .05)</t>
+  </si>
+  <si>
+    <t>Prior to beginning the project, power was calculated on the basis of a sample of 300 participants. Because only 267 participants were included in the current analyses, we reestimated power using PROC POWER in SAS, assuming a target sample of 267 participants, two-tailed tests, and a Type I error rate of .05. Power calculations took into account standard covariates and tested for significant main effects and interactions. The results revealed that we would have sufficient power (&gt; 95%) to detect a variable with a median (f 2 = .15) or large (f 2 = .35) effect size in a multiple linear regression model but would have only 63% power to detect a variable (or an interaction) with a small effect size (Cohen’s f 2 = .02).</t>
+  </si>
+  <si>
+    <t>Medium effect benchmark from Cohen</t>
+  </si>
+  <si>
+    <t>To test this, we recruited participants via Amazon Mechanical Turk to play a single round of a one-shot, anonymous HDG. Past research has shown that the scale of competition has a medium to very large effect size (Barclay &amp; Stoller, 2014; Barker &amp; Barclay, 2016; West et al., 0 10 20 30 40 50 60 70 80 90 100 0 20 40 60 80 100 Expected Losses per Pair Inequality (v) –100 –80 –60 –40 –20 0 20 40 60 80 100 0 20 40 60 80 100 Expected Wealth per Pair Inequality (v) a b Fig. 3. Theoretical effects of inequality (v) and the scale of competition (a) on expected wealth and losses. We assume that q = q* and k = 100. Curves represent a = 0 (dotted curves), a = 1/3 (dashed curves), and a = 2/3 (solid curves). The left graph displays the expected wealth per pair in the model (v – kq2 ). It shows that pairs earn less as competition becomes increasingly local, because local competition increases the frequency of Hawks and therefore the chance of a costly fight. The right graph displays the expected losses per pair in the model (kq2 ). It shows that more wealth is lost as inequality grows and that this effect is more severe as competition becomes increasingly local. 828 Krupp, Cook 2006); using a Cohen’s d set conservatively to 0.5 and statistical power set to .95, analysis suggested a minimum of 88 participants per condition under a nullhypothesis-significance-testing approach (which we did not use).</t>
+  </si>
+  <si>
+    <t>Rule of thumb</t>
+  </si>
+  <si>
+    <t>In this and all subsequent studies, sample sizes were determined in advance. For the lab studies, sample size was determined by the number of participants who appeared for the assigned lab session. For online studies, we recruited a minimum of 100 participants per cell. No participants or conditions were dropped from any analysis performed. All measures not reported here can be found in the Supplemental Material available online</t>
+  </si>
+  <si>
+    <t>A minimum sample size of 12 was chosen a priori on the basis of sample sizes of comparable studies (Kiyonaga &amp; Egner, 2016; Xing &amp; Heeger, 2001), and a power calculation illustrated that the current sample size yielded a statistical power greater than 90%.</t>
+  </si>
+  <si>
+    <t>Inaugurating Rationalization: Three Field Studies Find Increased Rationalization When Anticipated Realities Become Current Kristin Laurin,</t>
+  </si>
+  <si>
+    <t>Seeing What You Feel: Affect Drives Visual Perception of Structurally Neutral Faces Erika H. Siegel, Jolie B. Wormwood, Karen S. Quigley, Lisa Feldman Barrett</t>
+  </si>
+  <si>
+    <t>Sample size was determined by conducting a power analysis in G*Power (Faul, Erdfelder, Lang, &amp; Buchner, 2007) using effect sizes from previous research in our laboratory that employed a similar experimental task (Anderson et al., 2012, Study 4). This power analysis revealed that for an effect size (η2) of 0.1 to be detected (80% chance) with significance at the 5% level, a sample of at least 40 participants would be required.</t>
+  </si>
+  <si>
+    <t>Do People Inherently Dislike Uncertain Advice? Celia Gaertig, Joseph P. Simmons,</t>
+  </si>
+  <si>
+    <t>Informal assertion that this will be sufficent</t>
+  </si>
+  <si>
+    <t>Informal assertion of effect size</t>
+  </si>
+  <si>
+    <t>In our own 3 replications of the inaction-effect using scales rather than dichotomous options (reported in a different submission) we obtained the following effect sizes: Cohen d = .51, .81, and .38. We based our sample on the most conservative effect of .38, although we expectedthat in this scenario the effect is likely to be much stronger. Using G*Power alpha = .05, one-tail (direction of hypothesis known), d = 0.38 and power .95 we require a sample of 151 in each condition, 302 overall.The final sample was 316</t>
+  </si>
+  <si>
+    <t>Smallest effect size from set of pilots</t>
+  </si>
+  <si>
+    <t>To What Extent and Under Which Circumstances Are Growth Mind-Sets Important to Academic Achievement? Two Meta-Analyses Show all authors Victoria F. Sisk, Alexander P. Burgoyne, Jingze Sun</t>
+  </si>
+  <si>
+    <t>Power analysis for the 2 × 2 interaction with α = .05, a moderate effect size, and a power of 0.8, yields a sample size of 60 (15 per prenatal stressor per cross-fostering environment). Estimating a moderate effect size is reasonable on the basis of previous studies of developmental effects in voles. Notably, research using prairie voles has detected early-rearing effects using sample sizes smaller than ours (e.g., Perkeybile, Delaney-Busch, Hartman, Grimm, &amp; Bales, 2015).</t>
+  </si>
+  <si>
+    <t>Prenatal Stress as a Risk—and an Opportunity—Factor Show all authors Sarah Hartman, Sara M. Freeman, Karen L. Bales</t>
+  </si>
+  <si>
+    <t>The Gender-Equality Paradox in Science, Technology, Engineering, and Mathematics Education Gijsbert Stoet, David C. Geary</t>
+  </si>
+  <si>
+    <t>Early Socioemotional Intervention Mediates Long-Term Effects of Atypical Rearing on Structural Covariation in Gray Matter in Adult Chimpanzees Kim A. Bard, William D. Hopkins,</t>
+  </si>
+  <si>
+    <t>In a pilot study (see the Supplemental Material), this correlation (r) had a value of −.36. Assuming this effect size, we needed a sample size of 76 to achieve 90% power; we ran additional participants to maintain sufficient power after necessary participant exclusions. Informed consent was obtained from all participants. All procedures were approved by the Stanford University Research Compliance Office.</t>
+  </si>
+  <si>
+    <t>Propagation of Economic Inequality Through Reciprocity and Reputation Leor M. Hackel, Jamil Zaki,</t>
+  </si>
+  <si>
+    <t>We based our sample size on a previously published study testing VSP taking in a paired samples design (Freundlieb et al., 2016).</t>
+  </si>
+  <si>
+    <t>Based sample on single previous study's sample size (no PA)</t>
+  </si>
+  <si>
+    <t>Reading Your Mind While You Are Reading—Evidence for Spontaneous Visuospatial Perspective Taking During a Semantic Categorization Task Martin Freundlieb, Ágnes M. Kovács, Natalie Sebanz,</t>
+  </si>
+  <si>
+    <t>After Aylan Kurdi: How Tweeting About Death, Threat, and Harm Predict Increased Expressions of Solidarity With Refugees Over Time Laura G. E. Smith, Craig McGarty, Emma F. Thomas,</t>
+  </si>
+  <si>
+    <t>We conducted an a priori power analysis that established that the sample size required for an effect size (d) of 0.50 was 54 participants (to detect significance at p &lt; .05 in a one-sample t test; Faul, Erdfelder, Lang, &amp; Buchner, 2007). We recruited 59 participants (85% female) via a post advertising the survey on Twitter and from the Department of Psychology Research Participation Scheme for first-year undergraduates at a UK university.</t>
+  </si>
+  <si>
+    <t>Déjà Vu: An Illusion of Prediction Anne M. Cleary, Alexander B. Claxton</t>
+  </si>
+  <si>
+    <t>We aimed for a large sample size relative to past research, plus replication, because participants might, in fact, have no ability to predict the direction of the turn during retrieval failure at above-chance levels (thus, null prediction effects might be shown and would be critical to the overall pattern obtained, warranting a fairly large sample size). Experiment 3 was preregistered at the Open Science Framework for 120 participants. The number was based on a conservative power analysis (with power set to .90, an effect size, or d, of .30, and an α of .05), which indicated that our required sample size was 119. We rounded up to 120 for our preregistration to achieve an even number.</t>
+  </si>
+  <si>
+    <t>Is Source Information Automatically Available in Working Memory? Hui Chen, Richard A. Carlson, Brad Wyble,</t>
+  </si>
+  <si>
+    <t>In the current set of experiments, we used a predetermined sample size of 20 participants for each experiment or each group in between-subjects designs. This sample size was based on previous studies that indicated the magnitude of the effect that could be expected (Chen &amp; Wyble, 2015a, 2015b, 2016).</t>
+  </si>
+  <si>
+    <t>AnyJustificationOfEffectSize</t>
+  </si>
+  <si>
+    <t>Perceived Average Orientation Reflects Effective Gist of the Surface Oakyoon Cha, Sang Chul Chong,</t>
+  </si>
+  <si>
+    <t>We determined the number of naive participants on the basis of the previous study on the integration of Gabor orientations (Dakin &amp; Watt, 1997).</t>
+  </si>
+  <si>
+    <t>Contents Full Article Content List Abstract Experiment 1 Experiment 2 General Discussion Notes References Figures &amp; Tables Article Metrics Related Articles Toggle citation dialog Cite Toggle permissions dialog Request Permissions Explore More Download PDF Dissociating Orienting Biases From Integration Effects With Eye Movements Show less Matthew D. Hilchey, Jason Rajsic, Greg Huffman, Raymond M. Klein, Jay Pratt</t>
+  </si>
+  <si>
+    <t>The target sample size was 20, but 24 participated for course credit. Four of the first 20 participants failed to comply consistently with the eye movement instructions. These participants made in excess of five eye movements on more than 30% of all trials (32%, 39%, 42%, and 47%), a pass/fail criterion that was established prior to testing. Historically, a target sample size of 20 is more than adequate for detecting integration effects in manual RT data (e.g., Hilchey et al., 2017a, 2017b) and orientation biases in eye movement RT data, presuming inhibited reorienting (e.g., Hilchey, Klein, &amp; Ivanoff, 2012; Hilchey, Klein, &amp; Satel, 2014).</t>
+  </si>
+  <si>
+    <t>Polluted Morality: Air Pollution Predicts Criminal Activity and Unethical Behavior</t>
+  </si>
+  <si>
+    <t>We used G*Power to determine the sample size required for a small-to-medium-sized effect: 119 participants per condition were required for the study to be powered at 85%.</t>
+  </si>
+  <si>
+    <t>Unifying Visual Space Across the Left and Right Hemifields Zhimin Chen, Anna Kosovicheva, Benjamin Wolfe, Patrick Cavanagh, Andrei Gorea, David Whitney</t>
+  </si>
+  <si>
+    <t>The sample size we used is common for studies of visual adaptation and aftereffects</t>
+  </si>
+  <si>
+    <t>Genetics, the Rearing Environment, and the Intergenerational Transmission of Divorce: A Swedish National Adoption Study Show all authors Jessica E. Salvatore, Sara Larsson Lönn, Jan Sundquist</t>
+  </si>
+  <si>
+    <t>Concern for Others Leads to Vicarious Optimism  Andreas Kappes, Nadira S. Faber, Guy Kahane</t>
+  </si>
+  <si>
+    <t>We used G*Power 3.1 (Faul, Erdfelder, Buchner, &amp; Lang, 2009) to calculate desired sample sizes. We based our power analysis on previous research on the optimistic learning bias (Garrett &amp; Sharot, 2014; Garrett et al., 2014; Korn et al., 2014; Kuzmanovic et al., 2015; Moutsiana et al., 2013; Sharot, Guitart-Masip, et al., 2012; Sharot, Kanai, et al., 2012; Sharot et al., 2011), which found an average effect size (Cohen’s d) of valence (good news vs. bad news) on learning of 0.9. We expected the valence effect for a friend to be less strong than for the self and, hence, estimated a small to medium effect size of 0.4. To achieve a power of .90, we needed a sample of 67 participants. We expected that about 15% of the participants would have a BDI score higher than 12 given our previous experience with MTurk participants. Hence, we aimed for 85 participants to ensure a final sample of about 70 after excluding ineligible participants.</t>
+  </si>
+  <si>
+    <t>Positive Attitude Toward Math Supports Early Academic Success: Behavioral Evidence and Neurocognitive Mechanisms Lang Chen, Se Ri Bae, Christian Battista, Shaozheng Qin, Tianwen Chen, Tanya M. Evans, Vinod Menon</t>
+  </si>
+  <si>
+    <t>Additional power analyses were conducted to ensure that the sample size in both cohorts was sufficient to detect these effects (see the Supplemental Material).</t>
+  </si>
+  <si>
+    <t>The Role of Experimenter Belief in Social Priming Thandiwe S. E. Gilder, Erin A. Heerey,</t>
+  </si>
+  <si>
+    <t>We selected sample sizes a priori on the basis of a power analysis (two-tailed α = .05, effect size d = 0.70, experimental power = .80) using typical reported effect sizes (e.g., Smith &amp; Bargh, 2008; Smith &amp; Trope, 2006).</t>
+  </si>
+  <si>
+    <t>Pathways Into Literacy: The Role of Early Oral Language Abilities and Family Risk for Dyslexia  Sietske van Viersen, Elise H. de Bree, Marjolein Zee, Ben Maassen, Aryan van der Leij, Peter F. de Jong</t>
+  </si>
+  <si>
+    <t>Female Chess Players Outperform Expectations When Playing Men Tom Stafford,</t>
+  </si>
+  <si>
+    <t>Attractive Serial Dependence in the Absence of an Explicit Task Michele Fornaciai, Joonkoo Park,</t>
+  </si>
+  <si>
+    <t>Calorie Labeling Promotes Dietary Self-Control by Shifting the Temporal Dynamics of Health- and Taste-Attribute Integration in Overweight Individuals Show all authors Seung-Lark Lim, Molly T. Penrod</t>
+  </si>
+  <si>
+    <t>Target sample size (&gt; 31 for each group) was determined on the basis of the effect-size parameter (d = 0.68, two-tailed) of a previous dietary choice mouse-tracking study (Sullivan et al., 2015) with α = .05, 1 – β = 0.95, and data collection was completed by the end of the academic semester</t>
+  </si>
+  <si>
+    <t>Don’t Want to Look Dumb? The Role of Theories of Intelligence and Humanlike Features in Online Help Seeking Sara Kim, Ke Zhang, Daeun Park,</t>
+  </si>
+  <si>
+    <t>Given the effect sizes of prior work on theories of intelligence (average d = 0.65; Dyczewski &amp; Markman, 2012; Miele &amp; Molden, 2010; Rattan, Good, &amp; Dweck, 2012) and help seeking (average d = 0.60; Bohns &amp; Flynn, 2010; Flynn &amp; Lake, 2008; Nadler &amp; Chernyak-Hai, 2014; Nadler, Harpaz-Gorodeisky, &amp; Ben-David, 2009), an a priori power analysis indicated that about 40 participants per condition would provide sufficient power (greater than 80%) to detect group differences tested at a false positive rate of 5%.</t>
+  </si>
+  <si>
+    <t>Concern for Group Reputation Increases Prosociality in Young Children Jan M. Engelmann, Esther Herrmann, Michael Tomasello,</t>
+  </si>
+  <si>
+    <t>Early Conceptual Understanding of Cardinality Predicts Superior School-Entry Number-System Knowledge Show all authors David C. Geary, Kristy vanMarle, Felicia W. Chu</t>
+  </si>
+  <si>
+    <t>Contents Full Article Content List Abstract Experiment 1 Experiment 2 Experiment 3 Experiment 4 Analysis of the Relationship Between RT and Flanker Interference Discussion Acknowledgements Notes References Figures &amp; Tables Article Metrics Related Articles Toggle citation dialog Cite Toggle permissions dialog Request Permissions Explore More Download PDF Graspable Objects Grab Attention More Than Images Do Michael A. Gomez, Rafal M. Skiba, Jacqueline C. Snow,</t>
+  </si>
+  <si>
+    <t>Using G*Power (Version 3.1.9.2; Faul, Erdfelder, Lang, &amp; Buchner, 2007), we estimated that with a total sample of 41 participants, we would have 80% power to detect a medium effect, dz = 0.45, given a two-tailed test and an α level of .05. Therefore, we targeted a sample size of approximately 40 participants, with final numbers reflecting the number of students who sought research-participation credit during the semester.</t>
+  </si>
+  <si>
+    <t>Reward Adaptation and the Mechanisms of Learning: Contrast Changes Reward Value in Rats and Drives Learning Dominic Michael Dwyer, Jaime Figueroa, Patricia Gasalla</t>
+  </si>
+  <si>
+    <t>Infectious Disease and Imperfections of Self-Image Joshua M. Ackerman, Joshua M. Tybur, Chad R. Mortensen,</t>
+  </si>
+  <si>
+    <t>To determine sufficiently powered sample sizes in the following studies, we reviewed effect sizes of several previous tests of experimentally manipulated pathogen cues on responses to appearance-relevant stimuli (Ackerman et al., 2009; Miller &amp; Maner, 2012; White et al., 2013). We observed an average d of 0.65.</t>
+  </si>
+  <si>
+    <t>Mothers’ Neural and Behavioral Responses to Their Infants’ Distress Cues: The Role of Secure Base Script Knowledge Ashley M. Groh, Katherine C. Haydon,</t>
+  </si>
+  <si>
+    <t>Our predetermined target sample size of 70 was based on prior research on electrophysiological correlates of adult attachment (Fraedrich et al., 2010; Groh et al., 2015; Leyh et al., 2016) and available funding. Data collection stopped when we reached the enrollment goal.</t>
+  </si>
+  <si>
+    <t>the sample size was chosen on the basis that 12 rats per group had been used in our prior study of contrast effects (see Experiment 2 of Dwyer et al., 2011), and 16 rats were available prior to testing</t>
+  </si>
+  <si>
+    <t>Good Choice, Bad Judgment: How Choice Under Uncertainty Generates Overoptimism Jordan Tong, Daniel Feiler, Anastasia Ivantsova</t>
+  </si>
+  <si>
+    <t>Evidence for Implicit—But Not Unconscious—Processing of Object-Scene Relations Natalie Biderman, Liad Mudrik,</t>
+  </si>
+  <si>
+    <t>Sample sizes were predefined as 45 subjects who did not meet any of the above exclusion criteria (following Simonsohn, 2015), which was 2.5 times the original sample size.1 Power analysis using the G*Power package (Faul, Erdfelder, Buchner, &amp; Lang, 2009) and the original effect size of Mudrik and Koch (2013) showed that this sample size would give over 99% power to detect an effect.</t>
+  </si>
+  <si>
+    <t>Rule of thumb supported by power analysis</t>
+  </si>
+  <si>
+    <t>Contents Full Article Content List Abstract Experiment 1 Experiment 2 General Discussion Notes References Supplemental Material Figures &amp; Tables Article Metrics Related Articles Toggle citation dialog Cite Toggle permissions dialog Request Permissions Explore More Download PDF Eye-Movement Evidence for Object-Based Attention in Chinese Reading Yanping Liu, Erik D. Reichle,</t>
+  </si>
+  <si>
+    <t>Women Interact More Comfortably and Intimately With Gay Men—But Not Straight Men—After Learning Their Sexual Orientation Eric M. Russell, William Ickes, Vivian P. Ta,</t>
+  </si>
+  <si>
+    <t>For Study 1, sample size was chosen on the basis of Cohen’s (1988) recommendation that at least 50 participants be tested within each condition to achieve 80% power. We estimated a medium effect size because previous research examining women’s trust in gay men produced effects ranging from medium to large (Russell, DelPriore, Butterfield, &amp; Hill, 2013; Russell et al., 2017). To be conservative, we chose a medium—rather than large—effect size to estimate our sample.</t>
+  </si>
+  <si>
+    <t>Lack of Automatic Imitation in Newly Sighted Individuals Ayelet McKyton, Itay Ben-Zion, Ehud Zohary,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our sample size was severely limited because of the rareness of the condition (untreated congenital bilateral cataracts). Furthermore, our participants had to be able to recognize others’ hand actions to be included in the study. Their dense bilateral cataracts were most likely congenital or developed within a few months after birth, as all had clear nystagmus, a telltale sign of early-onset blindness. </t>
+  </si>
+  <si>
+    <t>Uncovering the Power of Personality to Shape Income Jaap J. A. Denissen, Wiebke Bleidorn, Marie Hennecke, Maike Luhmann, Ulrich Orth, Jule Specht, Julia Zimmermann</t>
+  </si>
+  <si>
+    <t>The Best of Both Worlds: Adaptation During Natural Tasks Produces Long-Lasting Plasticity in Perceptual Ocular Dominance Min Bao, Bo Dong, Lijuan Liu, Stephen A. Engel, Yi Jiang</t>
+  </si>
+  <si>
+    <t>Implicit Statistical Learning in Real-World Environments Leads to Ecologically Rational Decision Making Sonja Perkovic, Jacob Lund Orquin</t>
+  </si>
+  <si>
+    <t>Lingering Cognitive States Shape Fundamental Mnemonic Abilities Anuya Patil, Katherine Duncan</t>
+  </si>
+  <si>
+    <t>Dimensions of Experience: Exploring the Heterogeneity of the Wandering Mind Hao-Ting Wang, Giulia Poerio, Charlotte Murphy, Danilo Bzdok, Elizabeth Jefferies, Jonathan Smallwood</t>
+  </si>
+  <si>
+    <t>Human Information Processing Shapes Language Change Maryia Fedzechkina, Becky Chu, T. Florian Jaeger</t>
+  </si>
+  <si>
+    <t>University-Affiliated Alcohol Marketing Enhances the Incentive Salience of Alcohol Cues Bruce D. Bartholow, Chris Loersch, Tiffany A. Ito, Meredith P. Levsen, Hannah I. Volpert-Esmond, Kimberly A. Fleming, Paul Bolls, Brooke K. Carter</t>
+  </si>
+  <si>
+    <t>Symmetric Objects Become Special in Perception Because of Generic Computations in Neurons R. T. Pramod, S. P. Arun</t>
+  </si>
+  <si>
+    <t>Strengthening Causal Estimates for Links Between Spanking and Children’s Externalizing Behavior Problems Elizabeth T. Gershoff, Kierra M. P. Sattler, Arya Ansari</t>
+  </si>
+  <si>
+    <t>Can Science Explain the Human Mind? Intuitive Judgments About the Limits of Science Sara Gottlieb, Tania Lombrozo</t>
+  </si>
+  <si>
+    <t>Disentangling the Sources of Mimicry: Social Relations Analyses of the Link Between Mimicry and Liking Maike Salazar Kämpf, Helén Liebermann, Rudolf Kerschreiter, Sascha Krause, Steffen Nestler, Stefan C. Schmukle</t>
+  </si>
+  <si>
+    <t>Is There a Chastity Belt on Perception? Jessica K. Witt, Nathan L. Tenhundfeld, Michael J. Tymoski</t>
+  </si>
+  <si>
+    <t>Does Smile Intensity in Photographs Really Predict Longevity? A Replication and Extension of Abel and Kruger (2010) Michael Dufner, Martin Brümmer, Joanne M. Chung, Pia M. Drewke, Christophe Blaison, Stefan C. Schmukle</t>
+  </si>
+  <si>
+    <t>However, given that regression coefficients serve as input, it is illustrative that (after Bonferroni correction) this sample size was sufficient to detect an f 2 of .002, which corresponds to a very small effect.</t>
+  </si>
+  <si>
+    <t>Conservative estimate</t>
+  </si>
+  <si>
+    <t>Before we conducted the experiments, the numbers of subjects were predetermined on the basis of the sample sizes for previous studies in this field.</t>
+  </si>
+  <si>
+    <t>The sample size was the maximum achievable given budgetary constraints.</t>
+  </si>
+  <si>
+    <t>Thirty-five adults were recruited. Data from 3 participants were excluded from the analyses because they had previously participated in conflicting studies (n = 2) or reported drowsiness throughout the experiment (n = 1). Including their data did not change the pattern of results. The final analyses included 32 participants (mean age = 18.53 years, range = 18–22). A sample size of 32 was selected prior to data collection using pilot data (N = 36). These data were randomly sampled with replacement in a bootstrapping procedure to determine the number of participants required to achieve 80% power. Participants were fluent in English and had no history of psychiatric disorders. They were given course credit for their participation. All experimental procedures were approved by the local ethics committee, and all participants gave written informed consent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We preselected a sample size approximately double those used in our prior studies (e.g., Smallwood et al., 2016). A sample size of at least 125 is recommended in order to have 95% confidence that a correlation of typical size (r = .20–.30) is present and greater than 0 (Hemphill, 2003).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No previous studies have reported effects of in-group (vs. out-group) affiliation on P3 responses. Thus, sample size was estimated from power calculations based on effect sizes from prior studies using similar alcohol cue-presentation paradigms and predicting alcohol use prospectively with alcohol-cue-elicited P3 amplitude (e.g., Bartholow et al., 2007; Bartholow, Lust, &amp; Tragesser, 2010). </t>
+  </si>
+  <si>
+    <t>Average effect size in a set of studies (not a formal meta-analysis)</t>
+  </si>
+  <si>
+    <t>Average effect size in a set of studies (not a formal meta-analysis), reduced for publication bias in an ad hoc manner</t>
+  </si>
+  <si>
+    <t>A total of 8 subjects (age = 20–30 years; 5 female, 3 male) participated in this experiment. This number was chosen because this sample size yielded visual search times with extremely high split-half consistency in our previous studies (Pramod &amp; Arun, 2014, 2016)</t>
+  </si>
+  <si>
+    <t>This sample size was appropriate for our research questions because it is large and because, when weighted, it represents a nationally representative sample of children who were kindergartners in 1998.</t>
+  </si>
+  <si>
+    <t>Our sample size ensured that roughly 50 participants provided ratings for each dimension.2 We chose this number to exceed the sample size used by Bear and Knobe (2016), who conducted similar analyses and assigned 30 participants to each of their conditions. We also exceeded their number of stimulus items (30).</t>
+  </si>
+  <si>
+    <t>We analyzed power for detecting significant actor, partner, and relationship variance components in our social relations analysis by applying Lashley and Kenny’s (1998) approach with the computer software AID-SRM (http://davidakenny.net/srm/srmp.htm). Kenny (1994) suggested a minimum relative variance component of .10 (i.e., a variance component should be at least 10% of overall variance) for the interpretation of SRM effects, so we tested the statistical power of our sample to detect variance components of this minimum size. For the power analysis of actor variance, we specified a model with an actor variance of .10, a partner variance of .45, and a relationship variance of .45 (with an assumed dyadic reciprocity of r = .50). For the power analysis of partner variance, we specified an analogous model, assuming a partner variance of .10 and actor and relationship variances of .45 in the population. For these specifications, we calculated a power of 92.15% in our study. To estimate the power to detect a significant relationship variance, we specified a model with actor and partner variances of .45 and a relationship variance of .10 (dyadic reciprocity: r = .50), leading to a power of 99.99%. Thus, our sample size (26 groups, each containing an average of 5.35 persons) was large enough to identify relative variance components as small as 10% in our social relations analysis of mimicry.</t>
+  </si>
+  <si>
+    <t>Sixteen participants were recruited via the psychology participant pool at Colorado State University and received course credit. Based on previously reported effect sizes (Witt &amp; Sugovic, 2010, 2013b), a power analysis indicated that 9 participants were needed to achieve 80% power to detect an effect of paddle size on estimated speed of the ball.</t>
+  </si>
+  <si>
+    <t>We retrieved photographs of all baseball players from the website of the Baseball Register (http://www.baseball-reference.com/bullpen/Baseball_Register) on September 17, 2015. In total, 18,437 players were listed in the database. We deleted data for 903 players because no photograph of them was available. We also removed 26 players because their birth year was missing (and who therefore could not be used in our main analyses). At this stage, the sample size was 17,508.</t>
+  </si>
+  <si>
+    <t>Persistent Genetic and Family-Wide Environmental Contributions to Early Number Knowledge and Later Achievement in Mathematics Gabrielle Garon-Carrier, Michel Boivin, Yulia Kovas, Bei Feng, Mara Brendgen, Frank Vitaro, Jean R. Séguin, Richard E. Tremblay, Ginette Dionne</t>
+  </si>
+  <si>
+    <t>Preschool Intervention Can Promote Sustained Growth in the Executive-Function Skills of Children Exhibiting Early Deficits Tyler R. Sasser, Karen L. Bierman, Brenda Heinrichs, Robert L. Nix</t>
+  </si>
+  <si>
+    <t>Eye-Tracking Causality Tobias Gerstenberg, Matthew F. Peterson, Noah D. Goodman, David A. Lagnado, Joshua B. Tenenbaum</t>
+  </si>
+  <si>
+    <t>The Humanizing Voice: Speech Reveals, and Text Conceals, a More Thoughtful Mind in the Midst of Disagreement Juliana Schroeder, Michael Kardas, Nicholas Epley</t>
+  </si>
+  <si>
+    <t>Oxytocin and Social Bonds: The Role of Oxytocin in Perceptions of Romantic Partners’ Bonding Behavior Sara B. Algoe, Laura E. Kurtz, Karen Grewen</t>
+  </si>
+  <si>
+    <t>Reprioritization of Features of Multidimensional Objects Stored in Visual Working Memory Young Eun Park, Jocelyn L. Sy, Sang Wook Hong, Frank Tong</t>
+  </si>
+  <si>
+    <t>Attachment and Effortful Control in Toddlerhood Predict Academic Achievement Over a Decade Later Lilian Dindo, Rebecca L. Brock, Nazan Aksan, Wakiza Gamez, Grazyna Kochanska, Lee Anna Clark</t>
+  </si>
+  <si>
+    <t>Contagious Anxiety: Anxious European Americans Can Transmit Their Physiological Reactivity to African Americans Tessa V. West, Katrina Koslov, Elizabeth Page-Gould, Brenda Major, Wendy Berry Mendes</t>
+  </si>
+  <si>
+    <t>The Empirical Case for Acquiescing to Intuition Daniel K. Walco, Jane L. Risen</t>
+  </si>
+  <si>
+    <t>Probing Birth-Order Effects on Narrow Traits Using Specification-Curve Analysis Julia M. Rohrer, Boris Egloff, Stefan C. Schmukle</t>
+  </si>
+  <si>
+    <t>The Narcissism Epidemic Is Dead; Long Live the Narcissism Epidemic Eunike Wetzel, Anna Brown, Patrick L. Hill, Joanne M. Chung, Richard W. Robins, Brent W. Roberts</t>
+  </si>
+  <si>
+    <t>The Wisdom in Virtue: Pursuit of Virtue Predicts Wise Reasoning About Personal Conflicts Alex C. Huynh, Harrison Oakes, Garrett R. Shay, Ian McGregor</t>
+  </si>
+  <si>
+    <t>Healthy Out-Group Members Are Represented Psychologically as Infected In-Group Members Michael Bang Petersen</t>
+  </si>
+  <si>
+    <t>Stand by Your Stroop: Standing Up Enhances Selective Attention and Cognitive Control David Rosenbaum, Yaniv Mama, Daniel Algom</t>
+  </si>
+  <si>
+    <t>Praising Young Children for Being Smart Promotes Cheating Li Zhao, Gail D. Heyman, Lulu Chen, Kang Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A power analysis conducted with G*Power 3.1 (Faul, Erdfelder, Lang, &amp; Buchner, 2007) showed that fewer than 10 participants were required for .95 power to detect the weakest effect (f = 1.01) found in our previous work, given an α level of .05. </t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>We targeted a sample of 360 evaluators in an attempt to obtain ratings from 10 evaluators for each communicator in each experimental condition.</t>
+  </si>
+  <si>
+    <t>These methods were used in the context of a larger study; sample size from that study was determined to be sufficient to detect the hypothesized associations between oxytocin and targets’ perceptions if the effect were moderate in size, at 94% power, so all available urine samples were assayed. See the Supplemental Material available online for information about other procedures.</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>We planned on running a minimum of 100 dyads with a secondary goal of running an additional 20% to account for missing data. For laboratory data in which physiological responses were obtained, we typically observed approximately 10% data missing completely at random (and given that we ran dyads, we doubled this value).</t>
+  </si>
+  <si>
+    <t>Two hundred one participants (93 female, 108 male; mean age = 31.81 years, SD = 10.12) completed the study for $0.25 on Amazon Mechanical Turk. We predetermined to stop data collection when a sample size of 200 was reached and got 1 extra participant before the study was taken down. We recruited 100 per condition, which is larger than the sample size of most ratio-bias studies because participants made only one decision rather than several decisions.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on effect sizes from prior research on Solomon’s paradox (Grossmann &amp; Kross, 2014) a G*Power analysis suggested a total sample size of approximately 275 participants to achieve a statistical power of .80. </t>
+  </si>
+  <si>
+    <t>The sample size was determined on the basis of the data from a pilot study (N = 16), which tested VWM at a delay of 2 s following the retro-cue onset. We examined effect sizes of cuing on memory precision and retention rates. Using paired-samples t tests with a two-tailed alpha of .05, we estimated that detection of cuing benefits on memory precision and retention rates (Cohen’s ds = 1.00 and 0.83) would require sample sizes of 11 and 14, respectively, to achieve 80% power, while detection of a cuing cost on retention rates (Cohen’s d = 0.45) would require a sample size of 40.</t>
+  </si>
+  <si>
+    <t>This number of participants provided .61 power to find a medium-size effect. ... Increasing the number of participants to 50 provided a power of .92 to detect a medium-sized effect. This is very high power, which means that there was a very high probability of detecting any existing effect.</t>
   </si>
 </sst>
 </file>
@@ -254,8 +698,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,15 +1015,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E518BE-25CC-4B16-883C-FB193D628AE7}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="96" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -586,19 +1031,22 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -609,16 +1057,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -629,16 +1080,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -649,16 +1103,19 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -666,10 +1123,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -677,16 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -694,19 +1157,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -714,19 +1180,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -734,10 +1203,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -745,10 +1217,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -756,19 +1231,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -776,19 +1254,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -796,10 +1277,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -807,19 +1291,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -827,10 +1314,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -838,238 +1328,1776 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="G17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>77</v>
+      </c>
+      <c r="G80">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>173</v>
+      </c>
+      <c r="F84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>174</v>
+      </c>
+      <c r="F85" t="s">
+        <v>76</v>
+      </c>
+      <c r="G85">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>76</v>
+      </c>
+      <c r="G89">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="F91" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
+        <v>76</v>
+      </c>
+      <c r="G92">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>76</v>
+      </c>
+      <c r="G94">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" t="s">
+        <v>76</v>
+      </c>
+      <c r="G95">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>202</v>
+      </c>
+      <c r="G97">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>202</v>
+      </c>
+      <c r="G98">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99" t="s">
+        <v>202</v>
+      </c>
+      <c r="G99">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>202</v>
+      </c>
+      <c r="G100">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>202</v>
+      </c>
+      <c r="G102">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>206</v>
+      </c>
+      <c r="F103" t="s">
+        <v>202</v>
+      </c>
+      <c r="G103">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>207</v>
+      </c>
+      <c r="F104" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>202</v>
+      </c>
+      <c r="G105">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>202</v>
+      </c>
+      <c r="G106">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>202</v>
+      </c>
+      <c r="G107">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>202</v>
+      </c>
+      <c r="G108">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>87</v>
+      </c>
+      <c r="F109" t="s">
+        <v>202</v>
+      </c>
+      <c r="G109">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>202</v>
+      </c>
+      <c r="G110">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
